--- a/UseCaseIScenarij/ScenarijKupovineRazglednicaIMarkica.xlsx
+++ b/UseCaseIScenarij/ScenarijKupovineRazglednicaIMarkica.xlsx
@@ -38,7 +38,6 @@
   </si>
   <si>
     <t>Potrošač mora biti logovan
-Potrošač mora imati dovoljno novaca na kartici
 Potrošač mora imati popuniti formu za odabir razglednica/markica i za unos adrese</t>
   </si>
   <si>
@@ -52,8 +51,8 @@
     <t>Posljedice - neuspješan završetak</t>
   </si>
   <si>
-    <t>Nije obavljena kupovina jer nisu unešeni
-svi podaci ili je nedovoljno sredstava na kartici</t>
+    <t>Nije obavljena narudžba jer nisu unešeni
+svi podaci</t>
   </si>
   <si>
     <t>Primarni akteri</t>
@@ -65,29 +64,27 @@
     <t>Ostali akteri</t>
   </si>
   <si>
-    <t>Sistem za naplatu</t>
-  </si>
-  <si>
     <t>Glavni tok</t>
   </si>
   <si>
     <t>Podaci obrađeni, razglednice/markice
-kupljene</t>
+poslane na adresu</t>
   </si>
   <si>
     <t>Proširenja/alternative</t>
   </si>
   <si>
-    <t>1. Potrošač koji je logovan i ima dovoljno novaca
-na kartici, bira razglednice/markice koje želi naručiti</t>
+    <t xml:space="preserve">Sistem </t>
+  </si>
+  <si>
+    <t>1. Potrošač koji je logovan, bira razglednice/markice koje želi naručiti</t>
   </si>
   <si>
     <t>2. Potrošač upisuje adresu na
 koju narudžba dolazi</t>
   </si>
   <si>
-    <t>3. Sistem za naplatu sa računa korisnika skida
-ukupnu cijenu naručenih proizvoda</t>
+    <t>3. Sistem obrađuje podatke iz forme</t>
   </si>
 </sst>
 </file>
@@ -95,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,33 +114,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +130,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -179,17 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,30 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +199,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -248,6 +238,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -255,7 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,25 +267,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +458,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,45 +481,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +511,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -564,15 +561,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,139 +579,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -795,7 +789,7 @@
   <autoFilter ref="A12:B15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Potrošač"/>
-    <tableColumn id="2" name="Sistem za naplatu"/>
+    <tableColumn id="2" name="Sistem "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1090,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1136,7 +1130,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1144,7 +1138,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1161,20 +1155,20 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1185,21 +1179,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="77" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="31" customHeight="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1" spans="2:2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
